--- a/assets/diseño-modular.xlsx
+++ b/assets/diseño-modular.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2018-II\BIODISEÑO I\HappyThumbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D83349A-2CD2-4166-A533-AB2AC3BF2CBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DFB6042-F240-4B9A-A3C7-A20608073EDE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{0DB1247C-35FA-42EA-860C-18B3CCE98C9A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>FUNCIÓN</t>
   </si>
@@ -177,9 +177,6 @@
     <t>Exoesqueleto tela</t>
   </si>
   <si>
-    <t>Baterías de 5v</t>
-  </si>
-  <si>
     <t>Batería de lítio</t>
   </si>
   <si>
@@ -232,13 +229,34 @@
   </si>
   <si>
     <t>Distribución de fuerza</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Baterías </t>
+  </si>
+  <si>
+    <t>Fijación del pulgar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENTRADAS Y SALIDAS DEL SISTEMA </t>
+  </si>
+  <si>
+    <t>FUNCIONABILIDAD</t>
+  </si>
+  <si>
+    <t>TECNOLOGÍA EMPELADA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELECCIÓN DE 3 CONCEPTOS </t>
+  </si>
+  <si>
+    <t>EVALUACIÓN DE LOS CONCEPTOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,8 +294,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -332,8 +367,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -424,6 +465,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -441,7 +493,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -456,7 +508,7 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -474,7 +526,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -489,7 +541,7 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -501,39 +553,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -619,6 +639,143 @@
       </right>
       <top/>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -627,9 +784,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -644,7 +804,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -654,8 +813,7 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -667,100 +825,165 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -769,6 +992,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -786,13 +1014,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1724025</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1733550</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -839,13 +1067,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1733550</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -892,13 +1120,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1724025</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>276225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -945,13 +1173,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1743075</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -998,13 +1226,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>295275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1051,13 +1279,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1457325</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>323850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1104,13 +1332,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1457325</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>361950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1466850</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>314325</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1157,13 +1385,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1457325</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>323850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1210,13 +1438,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1543050</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1263,13 +1491,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1295400</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>323850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1295401</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>314325</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1316,13 +1544,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1314450</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>333375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1369,13 +1597,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>295275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>361950</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1422,13 +1650,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>361950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1475,13 +1703,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>323850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>314325</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1527,15 +1755,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1543050</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:colOff>1533525</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>304800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1543050</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1549,9 +1777,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4352925" y="2781300"/>
-          <a:ext cx="0" cy="400050"/>
+        <a:xfrm flipH="1">
+          <a:off x="4343400" y="10553700"/>
+          <a:ext cx="9525" cy="819150"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1581,14 +1809,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>962025</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>971550</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1603,8 +1831,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5819775" y="2819400"/>
-          <a:ext cx="9525" cy="409575"/>
+          <a:off x="5819775" y="10591800"/>
+          <a:ext cx="9525" cy="781050"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1634,13 +1862,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>333375</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1019175</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -1656,8 +1884,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7915275" y="2809875"/>
-          <a:ext cx="9525" cy="447675"/>
+          <a:off x="7915275" y="10582275"/>
+          <a:ext cx="9525" cy="828675"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1687,13 +1915,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1876425</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1745,13 +1973,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1838325</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1769,6 +1997,357 @@
         <a:xfrm>
           <a:off x="7134225" y="4619625"/>
           <a:ext cx="1609725" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1962150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>352424</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Flecha: a la derecha 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94420264-764F-4A1F-A369-4C7585AD091C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5057775" y="2228850"/>
+          <a:ext cx="1762125" cy="323849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>371475</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1971675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>314324</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Flecha: a la derecha 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45F7B937-5CFF-4FEB-89B0-B5046573B277}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5067300" y="2952750"/>
+          <a:ext cx="1762125" cy="323849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>361950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1962150</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>304799</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="Flecha: a la derecha 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFF3D322-E0BF-4351-AC3C-1BB8B9E039B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5057775" y="3324225"/>
+          <a:ext cx="1762125" cy="323849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1943100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>333374</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="Flecha: a la derecha 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{102044AA-5580-446B-B42A-8F258F4DEF22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5038725" y="3733800"/>
+          <a:ext cx="1762125" cy="323849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1952625</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>342899</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="Flecha: a la derecha 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{962BAD88-C963-48DD-8D5E-371C2639AEAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5048250" y="4124325"/>
+          <a:ext cx="1762125" cy="323849"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent5"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent5"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1962150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>333374</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Flecha: a la derecha 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01D267A1-F543-49CF-B2E5-A7D869AE69AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5057775" y="2590800"/>
+          <a:ext cx="1762125" cy="323849"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -2099,10 +2678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2832389B-65AA-4D20-9969-0F93D6EFA892}">
-  <dimension ref="B1:F46"/>
+  <dimension ref="B1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2110,415 +2689,458 @@
     <col min="2" max="9" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="5" t="s">
+    <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
+    </row>
+    <row r="3" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6" t="s">
+      <c r="F4" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="F3" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+      <c r="D5" s="10"/>
+      <c r="F5" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="F4" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="6" t="s">
+      <c r="D6" s="10"/>
+      <c r="F6" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="F5" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="7" t="s">
+      <c r="D7" s="10"/>
+      <c r="F7" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="11"/>
-    </row>
-    <row r="7" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="48" t="s">
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" spans="2:7" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="30"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:7" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="68"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="67"/>
+      <c r="G10" s="68"/>
+    </row>
+    <row r="11" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="13"/>
-    </row>
-    <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="49" t="s">
+      <c r="C12" s="36"/>
+      <c r="E12" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+    </row>
+    <row r="13" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="14" t="s">
+      <c r="C13" s="45"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="15"/>
-    </row>
-    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="14" t="s">
+      <c r="C14" s="38"/>
+      <c r="E14" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="15"/>
-    </row>
-    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
+      <c r="C15" s="13"/>
+      <c r="E15" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="15"/>
-    </row>
-    <row r="13" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
+      <c r="C16" s="13"/>
+      <c r="E16" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="15"/>
-    </row>
-    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="14" t="s">
+      <c r="C17" s="13"/>
+      <c r="E17" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="E18" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="15"/>
-    </row>
-    <row r="15" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="17"/>
-    </row>
-    <row r="16" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-    </row>
-    <row r="18" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="31" t="s">
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="67"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="68"/>
+    </row>
+    <row r="22" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="61" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="D26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="31" t="s">
+      <c r="E26" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="61" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="32" t="s">
+    </row>
+    <row r="29" spans="2:7" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="68"/>
+    </row>
+    <row r="35" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="39">
+        <v>3</v>
+      </c>
+      <c r="D37" s="33">
+        <v>2</v>
+      </c>
+      <c r="E37" s="33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="C38" s="27">
+        <v>3</v>
+      </c>
+      <c r="D38" s="21">
+        <v>1</v>
+      </c>
+      <c r="E38" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="71" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="27">
+        <v>3</v>
+      </c>
+      <c r="D39" s="21">
+        <v>1</v>
+      </c>
+      <c r="E39" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="27">
+        <v>4</v>
+      </c>
+      <c r="D40" s="21">
+        <v>1</v>
+      </c>
+      <c r="E40" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="27">
+        <v>3</v>
+      </c>
+      <c r="D41" s="21">
+        <v>1</v>
+      </c>
+      <c r="E41" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="49">
+        <v>3</v>
+      </c>
+      <c r="D42" s="21">
+        <v>4</v>
+      </c>
+      <c r="E42" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="50">
+        <f>SUM(C37:C42)</f>
+        <v>19</v>
+      </c>
+      <c r="D43" s="48">
+        <f>SUM(D37:D42)</f>
+        <v>10</v>
+      </c>
+      <c r="E43" s="19">
+        <f>SUM(E37:E42)</f>
         <v>16</v>
       </c>
-      <c r="D22" s="33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="24.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-    </row>
-    <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E26" s="20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E30" s="22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:5" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C39" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="E39" s="40" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="42">
-        <v>3</v>
-      </c>
-      <c r="D40" s="32">
-        <v>2</v>
-      </c>
-      <c r="E40" s="32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" s="42">
-        <v>3</v>
-      </c>
-      <c r="D41" s="32">
-        <v>1</v>
-      </c>
-      <c r="E41" s="32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="42">
-        <v>3</v>
-      </c>
-      <c r="D42" s="32">
-        <v>2</v>
-      </c>
-      <c r="E42" s="32">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:5" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="42">
-        <v>4</v>
-      </c>
-      <c r="D43" s="32">
-        <v>1</v>
-      </c>
-      <c r="E43" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="46" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="42">
-        <v>3</v>
-      </c>
-      <c r="D44" s="32">
-        <v>1</v>
-      </c>
-      <c r="E44" s="32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:5" s="41" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45" s="42">
-        <v>3</v>
-      </c>
-      <c r="D45" s="32">
-        <v>4</v>
-      </c>
-      <c r="E45" s="32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="2:5" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="C46" s="43">
-        <f>SUM(C40:C45)</f>
-        <v>19</v>
-      </c>
-      <c r="D46" s="27">
-        <f>SUM(D40:D45)</f>
-        <v>11</v>
-      </c>
-      <c r="E46" s="27">
-        <f>SUM(E40:E45)</f>
-        <v>17</v>
-      </c>
-    </row>
+    </row>
+    <row r="46" spans="2:5" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:5" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:5" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="13">
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D4:D8"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
